--- a/funcs/GENERAL.xlsx
+++ b/funcs/GENERAL.xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.11.240\Company\Ivanovo\Документация ЮНИТ М300\Разработка\Схемы ФБ ЮНИТ-М3\Трансформатор\ИЭУ Т 35 кВ Россети\01. Разработка ФБ\17. ДЗТ 35\_xlsx\funcs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\www_xlsx\funcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26820" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26820" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Signals" sheetId="1" r:id="rId1"/>
     <sheet name="Info" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="65">
   <si>
     <t>Категория (group)</t>
   </si>
@@ -202,9 +202,6 @@
     <t>DescriptionFunc</t>
   </si>
   <si>
-    <t>Блок управления</t>
-  </si>
-  <si>
     <t>WeightFunc</t>
   </si>
   <si>
@@ -212,6 +209,12 @@
   </si>
   <si>
     <t>WeightFB</t>
+  </si>
+  <si>
+    <t>SGF</t>
+  </si>
+  <si>
+    <t>Общие уставки</t>
   </si>
 </sst>
 </file>
@@ -600,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6:AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +799,7 @@
         <v>30</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -888,7 +891,7 @@
         <v>30</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -980,7 +983,7 @@
         <v>30</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1072,7 +1075,7 @@
         <v>30</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -1164,7 +1167,7 @@
         <v>30</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -1256,7 +1259,7 @@
         <v>30</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1360,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,12 +1406,12 @@
         <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1416,7 +1419,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -1424,7 +1427,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>100</v>
